--- a/2022/SAMSUNG/AUGUST/13.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/13.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -3327,6 +3327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3339,6 +3345,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3372,12 +3384,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3426,6 +3432,57 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3471,57 +3528,6 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3539,12 +3545,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4020,33 +4020,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="385"/>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
+      <c r="A1" s="387"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="383" t="s">
+      <c r="A2" s="388"/>
+      <c r="B2" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="386"/>
-      <c r="B3" s="384" t="s">
+      <c r="A3" s="388"/>
+      <c r="B3" s="386" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="386"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="386"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="386"/>
+      <c r="A5" s="388"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="386"/>
+      <c r="A6" s="388"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4094,7 +4094,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="386"/>
+      <c r="A7" s="388"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="386"/>
+      <c r="A8" s="388"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="386"/>
+      <c r="A9" s="388"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="386"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="386"/>
+      <c r="A11" s="388"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="386"/>
+      <c r="A12" s="388"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="386"/>
+      <c r="A13" s="388"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4227,7 +4227,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="386"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="386"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="386"/>
+      <c r="A16" s="388"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4278,7 +4278,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="386"/>
+      <c r="A17" s="388"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4291,7 +4291,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="386"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4304,7 +4304,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="386"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4317,7 +4317,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="386"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4330,7 +4330,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="386"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4343,7 +4343,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="386"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4356,7 +4356,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="386"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4369,7 +4369,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="386"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4382,7 +4382,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="386"/>
+      <c r="A25" s="388"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4395,7 +4395,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="386"/>
+      <c r="A26" s="388"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4408,7 +4408,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="386"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4421,7 +4421,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="386"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4434,7 +4434,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="386"/>
+      <c r="A29" s="388"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4447,7 +4447,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="386"/>
+      <c r="A30" s="388"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4460,7 +4460,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="386"/>
+      <c r="A31" s="388"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4473,7 +4473,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="386"/>
+      <c r="A32" s="388"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4486,7 +4486,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="386"/>
+      <c r="A33" s="388"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4499,7 +4499,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="386"/>
+      <c r="A34" s="388"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4512,7 +4512,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="386"/>
+      <c r="A35" s="388"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4525,7 +4525,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="386"/>
+      <c r="A36" s="388"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4538,7 +4538,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="386"/>
+      <c r="A37" s="388"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4551,7 +4551,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="386"/>
+      <c r="A38" s="388"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4564,7 +4564,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="386"/>
+      <c r="A39" s="388"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4577,7 +4577,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="386"/>
+      <c r="A40" s="388"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4590,7 +4590,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="386"/>
+      <c r="A41" s="388"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4603,7 +4603,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="386"/>
+      <c r="A42" s="388"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4616,7 +4616,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="386"/>
+      <c r="A43" s="388"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4629,7 +4629,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="386"/>
+      <c r="A44" s="388"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4642,7 +4642,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="386"/>
+      <c r="A45" s="388"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4655,7 +4655,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="386"/>
+      <c r="A46" s="388"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4668,7 +4668,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="386"/>
+      <c r="A47" s="388"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4681,7 +4681,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="386"/>
+      <c r="A48" s="388"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4694,7 +4694,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="386"/>
+      <c r="A49" s="388"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4707,7 +4707,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="386"/>
+      <c r="A50" s="388"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4720,7 +4720,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="386"/>
+      <c r="A51" s="388"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4733,7 +4733,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="386"/>
+      <c r="A52" s="388"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4746,7 +4746,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="386"/>
+      <c r="A53" s="388"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4759,7 +4759,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="386"/>
+      <c r="A54" s="388"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4772,7 +4772,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="386"/>
+      <c r="A55" s="388"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4784,7 +4784,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="386"/>
+      <c r="A56" s="388"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4796,7 +4796,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="386"/>
+      <c r="A57" s="388"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4808,7 +4808,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="386"/>
+      <c r="A58" s="388"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4820,7 +4820,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="386"/>
+      <c r="A59" s="388"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4832,7 +4832,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="386"/>
+      <c r="A60" s="388"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4844,7 +4844,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="386"/>
+      <c r="A61" s="388"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4856,7 +4856,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="386"/>
+      <c r="A62" s="388"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4868,7 +4868,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="386"/>
+      <c r="A63" s="388"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4880,7 +4880,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="386"/>
+      <c r="A64" s="388"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4892,7 +4892,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="386"/>
+      <c r="A65" s="388"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4904,7 +4904,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="386"/>
+      <c r="A66" s="388"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4916,7 +4916,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="386"/>
+      <c r="A67" s="388"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4928,7 +4928,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="386"/>
+      <c r="A68" s="388"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4940,7 +4940,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="386"/>
+      <c r="A69" s="388"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4952,7 +4952,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="386"/>
+      <c r="A70" s="388"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4964,7 +4964,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="386"/>
+      <c r="A71" s="388"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4976,7 +4976,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="386"/>
+      <c r="A72" s="388"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4988,7 +4988,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="386"/>
+      <c r="A73" s="388"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5000,7 +5000,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="386"/>
+      <c r="A74" s="388"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5012,7 +5012,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="386"/>
+      <c r="A75" s="388"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5024,7 +5024,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="386"/>
+      <c r="A76" s="388"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5036,7 +5036,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="386"/>
+      <c r="A77" s="388"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5048,7 +5048,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="386"/>
+      <c r="A78" s="388"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5060,7 +5060,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="386"/>
+      <c r="A79" s="388"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5072,7 +5072,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="386"/>
+      <c r="A80" s="388"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5084,7 +5084,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="386"/>
+      <c r="A81" s="388"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5096,7 +5096,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="386"/>
+      <c r="A82" s="388"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5108,7 +5108,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="386"/>
+      <c r="A83" s="388"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5165,33 +5165,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="385"/>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
+      <c r="A1" s="387"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="383" t="s">
+      <c r="A2" s="388"/>
+      <c r="B2" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="386"/>
-      <c r="B3" s="384" t="s">
+      <c r="A3" s="388"/>
+      <c r="B3" s="386" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="386"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="386"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5209,7 +5209,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="386"/>
+      <c r="A5" s="388"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="386"/>
+      <c r="A6" s="388"/>
       <c r="B6" s="26" t="s">
         <v>213</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="386"/>
+      <c r="A7" s="388"/>
       <c r="B7" s="26" t="s">
         <v>217</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="386"/>
+      <c r="A8" s="388"/>
       <c r="B8" s="26" t="s">
         <v>223</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="386"/>
+      <c r="A9" s="388"/>
       <c r="B9" s="26" t="s">
         <v>227</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="386"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="26" t="s">
         <v>231</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="386"/>
+      <c r="A11" s="388"/>
       <c r="B11" s="26" t="s">
         <v>232</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="386"/>
+      <c r="A12" s="388"/>
       <c r="B12" s="26" t="s">
         <v>236</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="386"/>
+      <c r="A13" s="388"/>
       <c r="B13" s="26" t="s">
         <v>241</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="386"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="26" t="s">
         <v>243</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="386"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="26" t="s">
         <v>247</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="386"/>
+      <c r="A16" s="388"/>
       <c r="B16" s="26" t="s">
         <v>254</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="386"/>
+      <c r="A17" s="388"/>
       <c r="B17" s="26"/>
       <c r="C17" s="226"/>
       <c r="D17" s="226"/>
@@ -5459,7 +5459,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="386"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="26"/>
       <c r="C18" s="226"/>
       <c r="D18" s="226"/>
@@ -5473,7 +5473,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="386"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="26"/>
       <c r="C19" s="226"/>
       <c r="D19" s="228"/>
@@ -5487,7 +5487,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="386"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="26"/>
       <c r="C20" s="226"/>
       <c r="D20" s="226"/>
@@ -5501,7 +5501,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="386"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="26"/>
       <c r="C21" s="226"/>
       <c r="D21" s="226"/>
@@ -5515,7 +5515,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="386"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="26"/>
       <c r="C22" s="226"/>
       <c r="D22" s="228"/>
@@ -5529,7 +5529,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="386"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="26"/>
       <c r="C23" s="226"/>
       <c r="D23" s="226"/>
@@ -5543,7 +5543,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="386"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="26"/>
       <c r="C24" s="226"/>
       <c r="D24" s="228"/>
@@ -5557,7 +5557,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="386"/>
+      <c r="A25" s="388"/>
       <c r="B25" s="26"/>
       <c r="C25" s="226"/>
       <c r="D25" s="226"/>
@@ -5571,7 +5571,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="386"/>
+      <c r="A26" s="388"/>
       <c r="B26" s="26"/>
       <c r="C26" s="226"/>
       <c r="D26" s="226"/>
@@ -5585,7 +5585,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="386"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="26"/>
       <c r="C27" s="226"/>
       <c r="D27" s="226"/>
@@ -5599,7 +5599,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="386"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="26"/>
       <c r="C28" s="226"/>
       <c r="D28" s="228"/>
@@ -5613,7 +5613,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="386"/>
+      <c r="A29" s="388"/>
       <c r="B29" s="26"/>
       <c r="C29" s="226"/>
       <c r="D29" s="226"/>
@@ -5627,7 +5627,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="386"/>
+      <c r="A30" s="388"/>
       <c r="B30" s="26"/>
       <c r="C30" s="226"/>
       <c r="D30" s="226"/>
@@ -5641,7 +5641,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="386"/>
+      <c r="A31" s="388"/>
       <c r="B31" s="26"/>
       <c r="C31" s="226"/>
       <c r="D31" s="226"/>
@@ -5655,7 +5655,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="386"/>
+      <c r="A32" s="388"/>
       <c r="B32" s="26"/>
       <c r="C32" s="226"/>
       <c r="D32" s="226"/>
@@ -5669,7 +5669,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="386"/>
+      <c r="A33" s="388"/>
       <c r="B33" s="26"/>
       <c r="C33" s="226"/>
       <c r="D33" s="228"/>
@@ -5683,7 +5683,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="386"/>
+      <c r="A34" s="388"/>
       <c r="B34" s="26"/>
       <c r="C34" s="226"/>
       <c r="D34" s="226"/>
@@ -5697,7 +5697,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="386"/>
+      <c r="A35" s="388"/>
       <c r="B35" s="26"/>
       <c r="C35" s="226"/>
       <c r="D35" s="226"/>
@@ -5711,7 +5711,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="386"/>
+      <c r="A36" s="388"/>
       <c r="B36" s="26"/>
       <c r="C36" s="226"/>
       <c r="D36" s="226"/>
@@ -5725,7 +5725,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="386"/>
+      <c r="A37" s="388"/>
       <c r="B37" s="26"/>
       <c r="C37" s="226"/>
       <c r="D37" s="226"/>
@@ -5739,7 +5739,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="386"/>
+      <c r="A38" s="388"/>
       <c r="B38" s="26"/>
       <c r="C38" s="226"/>
       <c r="D38" s="226"/>
@@ -5753,7 +5753,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="386"/>
+      <c r="A39" s="388"/>
       <c r="B39" s="26"/>
       <c r="C39" s="226"/>
       <c r="D39" s="226"/>
@@ -5767,7 +5767,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="386"/>
+      <c r="A40" s="388"/>
       <c r="B40" s="26"/>
       <c r="C40" s="226"/>
       <c r="D40" s="226"/>
@@ -5781,7 +5781,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="386"/>
+      <c r="A41" s="388"/>
       <c r="B41" s="26"/>
       <c r="C41" s="226"/>
       <c r="D41" s="226"/>
@@ -5795,7 +5795,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="386"/>
+      <c r="A42" s="388"/>
       <c r="B42" s="26"/>
       <c r="C42" s="226"/>
       <c r="D42" s="226"/>
@@ -5809,7 +5809,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="386"/>
+      <c r="A43" s="388"/>
       <c r="B43" s="26"/>
       <c r="C43" s="226"/>
       <c r="D43" s="226"/>
@@ -5823,7 +5823,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="386"/>
+      <c r="A44" s="388"/>
       <c r="B44" s="26"/>
       <c r="C44" s="226"/>
       <c r="D44" s="226"/>
@@ -5837,7 +5837,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="386"/>
+      <c r="A45" s="388"/>
       <c r="B45" s="26"/>
       <c r="C45" s="226"/>
       <c r="D45" s="226"/>
@@ -5851,7 +5851,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="386"/>
+      <c r="A46" s="388"/>
       <c r="B46" s="26"/>
       <c r="C46" s="226"/>
       <c r="D46" s="226"/>
@@ -5865,7 +5865,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="386"/>
+      <c r="A47" s="388"/>
       <c r="B47" s="26"/>
       <c r="C47" s="226"/>
       <c r="D47" s="226"/>
@@ -5879,7 +5879,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="386"/>
+      <c r="A48" s="388"/>
       <c r="B48" s="26"/>
       <c r="C48" s="226"/>
       <c r="D48" s="226"/>
@@ -5893,7 +5893,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="386"/>
+      <c r="A49" s="388"/>
       <c r="B49" s="26"/>
       <c r="C49" s="226"/>
       <c r="D49" s="226"/>
@@ -5907,7 +5907,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="386"/>
+      <c r="A50" s="388"/>
       <c r="B50" s="26"/>
       <c r="C50" s="226"/>
       <c r="D50" s="226"/>
@@ -5921,7 +5921,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="386"/>
+      <c r="A51" s="388"/>
       <c r="B51" s="26"/>
       <c r="C51" s="226"/>
       <c r="D51" s="226"/>
@@ -5935,7 +5935,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="386"/>
+      <c r="A52" s="388"/>
       <c r="B52" s="26"/>
       <c r="C52" s="226"/>
       <c r="D52" s="226"/>
@@ -5949,7 +5949,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="386"/>
+      <c r="A53" s="388"/>
       <c r="B53" s="26"/>
       <c r="C53" s="226"/>
       <c r="D53" s="226"/>
@@ -5963,7 +5963,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="386"/>
+      <c r="A54" s="388"/>
       <c r="B54" s="26"/>
       <c r="C54" s="226"/>
       <c r="D54" s="226"/>
@@ -5977,7 +5977,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="386"/>
+      <c r="A55" s="388"/>
       <c r="B55" s="26"/>
       <c r="C55" s="226"/>
       <c r="D55" s="226"/>
@@ -5991,7 +5991,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="386"/>
+      <c r="A56" s="388"/>
       <c r="B56" s="26"/>
       <c r="C56" s="226"/>
       <c r="D56" s="226"/>
@@ -6005,7 +6005,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="386"/>
+      <c r="A57" s="388"/>
       <c r="B57" s="26"/>
       <c r="C57" s="226"/>
       <c r="D57" s="226"/>
@@ -6016,7 +6016,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="386"/>
+      <c r="A58" s="388"/>
       <c r="B58" s="26"/>
       <c r="C58" s="226"/>
       <c r="D58" s="226"/>
@@ -6027,7 +6027,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="386"/>
+      <c r="A59" s="388"/>
       <c r="B59" s="26"/>
       <c r="C59" s="226"/>
       <c r="D59" s="226"/>
@@ -6038,7 +6038,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="386"/>
+      <c r="A60" s="388"/>
       <c r="B60" s="26"/>
       <c r="C60" s="226"/>
       <c r="D60" s="226"/>
@@ -6049,7 +6049,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="386"/>
+      <c r="A61" s="388"/>
       <c r="B61" s="26"/>
       <c r="C61" s="226"/>
       <c r="D61" s="226"/>
@@ -6060,7 +6060,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="386"/>
+      <c r="A62" s="388"/>
       <c r="B62" s="26"/>
       <c r="C62" s="226"/>
       <c r="D62" s="226"/>
@@ -6071,7 +6071,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="386"/>
+      <c r="A63" s="388"/>
       <c r="B63" s="26"/>
       <c r="C63" s="226"/>
       <c r="D63" s="226"/>
@@ -6082,7 +6082,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="386"/>
+      <c r="A64" s="388"/>
       <c r="B64" s="26"/>
       <c r="C64" s="226"/>
       <c r="D64" s="226"/>
@@ -6093,7 +6093,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="386"/>
+      <c r="A65" s="388"/>
       <c r="B65" s="26"/>
       <c r="C65" s="226"/>
       <c r="D65" s="226"/>
@@ -6104,7 +6104,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="386"/>
+      <c r="A66" s="388"/>
       <c r="B66" s="26"/>
       <c r="C66" s="226"/>
       <c r="D66" s="226"/>
@@ -6115,7 +6115,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="386"/>
+      <c r="A67" s="388"/>
       <c r="B67" s="26"/>
       <c r="C67" s="226"/>
       <c r="D67" s="226"/>
@@ -6126,7 +6126,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="386"/>
+      <c r="A68" s="388"/>
       <c r="B68" s="26"/>
       <c r="C68" s="226"/>
       <c r="D68" s="226"/>
@@ -6137,7 +6137,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="386"/>
+      <c r="A69" s="388"/>
       <c r="B69" s="26"/>
       <c r="C69" s="226"/>
       <c r="D69" s="226"/>
@@ -6148,7 +6148,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="386"/>
+      <c r="A70" s="388"/>
       <c r="B70" s="26"/>
       <c r="C70" s="226"/>
       <c r="D70" s="226"/>
@@ -6159,7 +6159,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="386"/>
+      <c r="A71" s="388"/>
       <c r="B71" s="26"/>
       <c r="C71" s="226"/>
       <c r="D71" s="226"/>
@@ -6170,7 +6170,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="386"/>
+      <c r="A72" s="388"/>
       <c r="B72" s="26"/>
       <c r="C72" s="226"/>
       <c r="D72" s="226"/>
@@ -6181,7 +6181,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="386"/>
+      <c r="A73" s="388"/>
       <c r="B73" s="26"/>
       <c r="C73" s="226"/>
       <c r="D73" s="226"/>
@@ -6192,7 +6192,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="386"/>
+      <c r="A74" s="388"/>
       <c r="B74" s="26"/>
       <c r="C74" s="226"/>
       <c r="D74" s="226"/>
@@ -6203,7 +6203,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="386"/>
+      <c r="A75" s="388"/>
       <c r="B75" s="26"/>
       <c r="C75" s="226"/>
       <c r="D75" s="226"/>
@@ -6214,7 +6214,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="386"/>
+      <c r="A76" s="388"/>
       <c r="B76" s="26"/>
       <c r="C76" s="226"/>
       <c r="D76" s="226"/>
@@ -6225,7 +6225,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="386"/>
+      <c r="A77" s="388"/>
       <c r="B77" s="26"/>
       <c r="C77" s="226"/>
       <c r="D77" s="226"/>
@@ -6236,7 +6236,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="386"/>
+      <c r="A78" s="388"/>
       <c r="B78" s="26"/>
       <c r="C78" s="226"/>
       <c r="D78" s="226"/>
@@ -6247,7 +6247,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="386"/>
+      <c r="A79" s="388"/>
       <c r="B79" s="26"/>
       <c r="C79" s="226"/>
       <c r="D79" s="226"/>
@@ -6259,7 +6259,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="386"/>
+      <c r="A80" s="388"/>
       <c r="B80" s="26"/>
       <c r="C80" s="226"/>
       <c r="D80" s="226"/>
@@ -6271,7 +6271,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="386"/>
+      <c r="A81" s="388"/>
       <c r="B81" s="26"/>
       <c r="C81" s="226"/>
       <c r="D81" s="226"/>
@@ -6283,7 +6283,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="386"/>
+      <c r="A82" s="388"/>
       <c r="B82" s="26"/>
       <c r="C82" s="226"/>
       <c r="D82" s="226"/>
@@ -6295,7 +6295,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="386"/>
+      <c r="A83" s="388"/>
       <c r="B83" s="31"/>
       <c r="C83" s="227">
         <f>SUM(C5:C72)</f>
@@ -6358,67 +6358,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="389" t="s">
+      <c r="A1" s="393" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="389"/>
-      <c r="H1" s="389"/>
-      <c r="I1" s="389"/>
-      <c r="J1" s="389"/>
-      <c r="K1" s="389"/>
-      <c r="L1" s="389"/>
-      <c r="M1" s="389"/>
-      <c r="N1" s="389"/>
-      <c r="O1" s="389"/>
-      <c r="P1" s="389"/>
-      <c r="Q1" s="389"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="393"/>
+      <c r="P1" s="393"/>
+      <c r="Q1" s="393"/>
     </row>
     <row r="2" spans="1:24" s="60" customFormat="1" ht="18">
-      <c r="A2" s="390" t="s">
+      <c r="A2" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
-      <c r="J2" s="390"/>
-      <c r="K2" s="390"/>
-      <c r="L2" s="390"/>
-      <c r="M2" s="390"/>
-      <c r="N2" s="390"/>
-      <c r="O2" s="390"/>
-      <c r="P2" s="390"/>
-      <c r="Q2" s="390"/>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="394"/>
+      <c r="P2" s="394"/>
+      <c r="Q2" s="394"/>
     </row>
     <row r="3" spans="1:24" s="61" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="391" t="s">
+      <c r="A3" s="395" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="392"/>
-      <c r="C3" s="392"/>
-      <c r="D3" s="392"/>
-      <c r="E3" s="392"/>
-      <c r="F3" s="392"/>
-      <c r="G3" s="392"/>
-      <c r="H3" s="392"/>
-      <c r="I3" s="392"/>
-      <c r="J3" s="392"/>
-      <c r="K3" s="392"/>
-      <c r="L3" s="392"/>
-      <c r="M3" s="392"/>
-      <c r="N3" s="392"/>
-      <c r="O3" s="392"/>
-      <c r="P3" s="392"/>
-      <c r="Q3" s="393"/>
+      <c r="B3" s="396"/>
+      <c r="C3" s="396"/>
+      <c r="D3" s="396"/>
+      <c r="E3" s="396"/>
+      <c r="F3" s="396"/>
+      <c r="G3" s="396"/>
+      <c r="H3" s="396"/>
+      <c r="I3" s="396"/>
+      <c r="J3" s="396"/>
+      <c r="K3" s="396"/>
+      <c r="L3" s="396"/>
+      <c r="M3" s="396"/>
+      <c r="N3" s="396"/>
+      <c r="O3" s="396"/>
+      <c r="P3" s="396"/>
+      <c r="Q3" s="397"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6427,52 +6427,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="394" t="s">
+      <c r="A4" s="398" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="396" t="s">
+      <c r="B4" s="400" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="389" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="398" t="s">
+      <c r="D4" s="389" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="398" t="s">
+      <c r="E4" s="389" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="398" t="s">
+      <c r="F4" s="389" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="398" t="s">
+      <c r="G4" s="389" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="398" t="s">
+      <c r="H4" s="389" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="398" t="s">
+      <c r="I4" s="389" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="398" t="s">
+      <c r="J4" s="389" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="398" t="s">
+      <c r="K4" s="389" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="398" t="s">
+      <c r="L4" s="389" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="398" t="s">
+      <c r="M4" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="N4" s="398" t="s">
+      <c r="N4" s="389" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="387" t="s">
+      <c r="O4" s="391" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="400" t="s">
+      <c r="P4" s="402" t="s">
         <v>218</v>
       </c>
       <c r="Q4" s="117" t="s">
@@ -6485,22 +6485,22 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="395"/>
-      <c r="B5" s="397"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="399"/>
-      <c r="M5" s="399"/>
-      <c r="N5" s="399"/>
-      <c r="O5" s="388"/>
-      <c r="P5" s="401"/>
+      <c r="A5" s="399"/>
+      <c r="B5" s="401"/>
+      <c r="C5" s="390"/>
+      <c r="D5" s="390"/>
+      <c r="E5" s="390"/>
+      <c r="F5" s="390"/>
+      <c r="G5" s="390"/>
+      <c r="H5" s="390"/>
+      <c r="I5" s="390"/>
+      <c r="J5" s="390"/>
+      <c r="K5" s="390"/>
+      <c r="L5" s="390"/>
+      <c r="M5" s="390"/>
+      <c r="N5" s="390"/>
+      <c r="O5" s="392"/>
+      <c r="P5" s="403"/>
       <c r="Q5" s="118" t="s">
         <v>36</v>
       </c>
@@ -9492,6 +9492,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9508,9 +9511,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9550,14 +9550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="407" t="s">
+      <c r="A1" s="409" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="409"/>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="411"/>
       <c r="G1" s="55"/>
       <c r="H1" s="134"/>
       <c r="I1" s="134"/>
@@ -9650,14 +9650,14 @@
       <c r="CR1" s="129"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="410" t="s">
+      <c r="A2" s="412" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="411"/>
-      <c r="C2" s="411"/>
-      <c r="D2" s="411"/>
-      <c r="E2" s="411"/>
-      <c r="F2" s="412"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="414"/>
       <c r="G2" s="55"/>
       <c r="H2" s="134"/>
       <c r="I2" s="134"/>
@@ -9750,14 +9750,14 @@
       <c r="CR2" s="129"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="415" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="415"/>
+      <c r="B3" s="416"/>
+      <c r="C3" s="416"/>
+      <c r="D3" s="416"/>
+      <c r="E3" s="416"/>
+      <c r="F3" s="417"/>
       <c r="G3" s="55"/>
       <c r="H3" s="134"/>
       <c r="I3" s="134"/>
@@ -13090,12 +13090,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="124"/>
-      <c r="B35" s="404" t="s">
+      <c r="B35" s="406" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="404"/>
-      <c r="D35" s="404"/>
-      <c r="E35" s="404"/>
+      <c r="C35" s="406"/>
+      <c r="D35" s="406"/>
+      <c r="E35" s="406"/>
       <c r="F35" s="125"/>
       <c r="G35" s="130"/>
       <c r="H35" s="131"/>
@@ -13954,9 +13954,9 @@
       <c r="D43" s="197"/>
       <c r="E43" s="167"/>
       <c r="F43" s="125"/>
-      <c r="G43" s="405"/>
-      <c r="H43" s="405"/>
-      <c r="I43" s="405"/>
+      <c r="G43" s="407"/>
+      <c r="H43" s="407"/>
+      <c r="I43" s="407"/>
       <c r="J43" s="55"/>
       <c r="K43" s="134"/>
       <c r="L43" s="55"/>
@@ -22009,11 +22009,11 @@
       <c r="CR118" s="129"/>
     </row>
     <row r="119" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A119" s="402" t="s">
+      <c r="A119" s="404" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="403"/>
-      <c r="C119" s="406"/>
+      <c r="B119" s="405"/>
+      <c r="C119" s="408"/>
       <c r="D119" s="201">
         <f>SUM(D37:D118)</f>
         <v>3124626</v>
@@ -22217,11 +22217,11 @@
       <c r="CR120" s="129"/>
     </row>
     <row r="121" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A121" s="402" t="s">
+      <c r="A121" s="404" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="403"/>
-      <c r="C121" s="403"/>
+      <c r="B121" s="405"/>
+      <c r="C121" s="405"/>
       <c r="D121" s="201">
         <f>D119+L121</f>
         <v>3124626</v>
@@ -33326,8 +33326,8 @@
   </sheetPr>
   <dimension ref="A1:R214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33353,28 +33353,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="416" t="s">
+      <c r="A1" s="435" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="417"/>
-      <c r="D1" s="417"/>
-      <c r="E1" s="418"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="437"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="431"/>
-      <c r="J1" s="431"/>
-      <c r="K1" s="431"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="425" t="s">
+      <c r="A2" s="444" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="426"/>
-      <c r="C2" s="426"/>
-      <c r="D2" s="426"/>
-      <c r="E2" s="427"/>
+      <c r="B2" s="445"/>
+      <c r="C2" s="445"/>
+      <c r="D2" s="445"/>
+      <c r="E2" s="446"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33395,13 +33395,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="419" t="s">
+      <c r="A3" s="438" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="420"/>
-      <c r="C3" s="420"/>
-      <c r="D3" s="420"/>
-      <c r="E3" s="421"/>
+      <c r="B3" s="439"/>
+      <c r="C3" s="439"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="440"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33428,13 +33428,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="428" t="s">
+      <c r="A4" s="447" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="429"/>
-      <c r="C4" s="429"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="430"/>
+      <c r="B4" s="448"/>
+      <c r="C4" s="448"/>
+      <c r="D4" s="448"/>
+      <c r="E4" s="449"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -33506,7 +33506,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="223">
-        <v>53883</v>
+        <v>50691</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="37" t="s">
@@ -33707,7 +33707,7 @@
       </c>
       <c r="B11" s="314">
         <f>B6-B9-B10</f>
-        <v>43773</v>
+        <v>40581</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="37"/>
@@ -33812,10 +33812,10 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="21.75">
-      <c r="A14" s="454" t="s">
+      <c r="A14" s="383" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="455">
+      <c r="B14" s="384">
         <v>200000</v>
       </c>
       <c r="C14" s="38"/>
@@ -33926,11 +33926,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="279"/>
-      <c r="I17" s="432" t="s">
+      <c r="I17" s="423" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="432"/>
-      <c r="K17" s="432"/>
+      <c r="J17" s="423"/>
+      <c r="K17" s="423"/>
       <c r="L17" s="310">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -33953,11 +33953,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="279"/>
-      <c r="I18" s="433" t="s">
+      <c r="I18" s="431" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="433"/>
-      <c r="K18" s="433"/>
+      <c r="J18" s="431"/>
+      <c r="K18" s="431"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -33969,21 +33969,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="422" t="s">
+      <c r="A19" s="441" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="423"/>
-      <c r="C19" s="423"/>
-      <c r="D19" s="423"/>
-      <c r="E19" s="424"/>
+      <c r="B19" s="442"/>
+      <c r="C19" s="442"/>
+      <c r="D19" s="442"/>
+      <c r="E19" s="443"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="440" t="s">
+      <c r="I19" s="426" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="440"/>
-      <c r="K19" s="440"/>
+      <c r="J19" s="426"/>
+      <c r="K19" s="426"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34011,11 +34011,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="434" t="s">
+      <c r="I20" s="419" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="434"/>
-      <c r="K20" s="434"/>
+      <c r="J20" s="419"/>
+      <c r="K20" s="419"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34042,11 +34042,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="435" t="s">
+      <c r="I21" s="432" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="436"/>
-      <c r="K21" s="437"/>
+      <c r="J21" s="433"/>
+      <c r="K21" s="434"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34071,11 +34071,11 @@
       <c r="E22" s="244">
         <v>267323</v>
       </c>
-      <c r="I22" s="440" t="s">
+      <c r="I22" s="426" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="440"/>
-      <c r="K22" s="440"/>
+      <c r="J22" s="426"/>
+      <c r="K22" s="426"/>
       <c r="L22" s="348">
         <v>20000</v>
       </c>
@@ -34100,11 +34100,11 @@
       <c r="E23" s="244">
         <v>271949</v>
       </c>
-      <c r="I23" s="441" t="s">
+      <c r="I23" s="420" t="s">
         <v>187</v>
       </c>
-      <c r="J23" s="442"/>
-      <c r="K23" s="443"/>
+      <c r="J23" s="421"/>
+      <c r="K23" s="422"/>
       <c r="L23" s="348">
         <v>40000</v>
       </c>
@@ -34129,11 +34129,11 @@
       <c r="E24" s="302">
         <v>219337</v>
       </c>
-      <c r="I24" s="440" t="s">
+      <c r="I24" s="426" t="s">
         <v>230</v>
       </c>
-      <c r="J24" s="440"/>
-      <c r="K24" s="440"/>
+      <c r="J24" s="426"/>
+      <c r="K24" s="426"/>
       <c r="L24" s="330">
         <v>30000</v>
       </c>
@@ -34158,11 +34158,11 @@
       <c r="E25" s="244">
         <v>77140</v>
       </c>
-      <c r="I25" s="432" t="s">
+      <c r="I25" s="423" t="s">
         <v>166</v>
       </c>
-      <c r="J25" s="432"/>
-      <c r="K25" s="432"/>
+      <c r="J25" s="423"/>
+      <c r="K25" s="423"/>
       <c r="L25" s="310">
         <f>L17-L18-L19-L20-L21-L22-L23-L24</f>
         <v>98150</v>
@@ -34228,13 +34228,13 @@
       <c r="E28" s="244">
         <v>61308</v>
       </c>
-      <c r="I28" s="444" t="s">
+      <c r="I28" s="427" t="s">
         <v>239</v>
       </c>
-      <c r="J28" s="445"/>
-      <c r="K28" s="445"/>
-      <c r="L28" s="445"/>
-      <c r="M28" s="446"/>
+      <c r="J28" s="428"/>
+      <c r="K28" s="428"/>
+      <c r="L28" s="428"/>
+      <c r="M28" s="429"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="372" t="s">
@@ -34250,11 +34250,11 @@
       <c r="E29" s="376">
         <v>230000</v>
       </c>
-      <c r="I29" s="438" t="s">
+      <c r="I29" s="424" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="438"/>
-      <c r="K29" s="439"/>
+      <c r="J29" s="424"/>
+      <c r="K29" s="425"/>
       <c r="L29" s="380">
         <v>213170</v>
       </c>
@@ -34267,11 +34267,11 @@
     </row>
     <row r="30" spans="1:18">
       <c r="E30" s="14"/>
-      <c r="I30" s="447" t="s">
+      <c r="I30" s="418" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="434"/>
-      <c r="K30" s="434"/>
+      <c r="J30" s="419"/>
+      <c r="K30" s="419"/>
       <c r="L30" s="378">
         <v>79500</v>
       </c>
@@ -34285,11 +34285,11 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="I31" s="447" t="s">
+      <c r="I31" s="418" t="s">
         <v>157</v>
       </c>
-      <c r="J31" s="434"/>
-      <c r="K31" s="434"/>
+      <c r="J31" s="419"/>
+      <c r="K31" s="419"/>
       <c r="L31" s="378">
         <v>47500</v>
       </c>
@@ -34303,11 +34303,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="I32" s="447" t="s">
+      <c r="I32" s="418" t="s">
         <v>157</v>
       </c>
-      <c r="J32" s="434"/>
-      <c r="K32" s="434"/>
+      <c r="J32" s="419"/>
+      <c r="K32" s="419"/>
       <c r="L32" s="378">
         <v>50000</v>
       </c>
@@ -34321,9 +34321,9 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="I33" s="441"/>
-      <c r="J33" s="442"/>
-      <c r="K33" s="443"/>
+      <c r="I33" s="420"/>
+      <c r="J33" s="421"/>
+      <c r="K33" s="422"/>
       <c r="L33" s="378"/>
       <c r="M33" s="378"/>
       <c r="N33" s="7"/>
@@ -34333,11 +34333,11 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18" ht="15.75">
-      <c r="I34" s="432" t="s">
+      <c r="I34" s="423" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="432"/>
-      <c r="K34" s="432"/>
+      <c r="J34" s="423"/>
+      <c r="K34" s="423"/>
       <c r="L34" s="377">
         <f>L29-L30-L31-L32-L33</f>
         <v>36170</v>
@@ -37007,11 +37007,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -37019,16 +37024,11 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -37062,10 +37062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="448" t="s">
+      <c r="A1" s="450" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="449"/>
+      <c r="B1" s="451"/>
       <c r="C1" s="248">
         <f>C73+G13+E1</f>
         <v>165010</v>
@@ -37113,11 +37113,11 @@
       <c r="H3" s="347" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="452" t="s">
+      <c r="J3" s="454" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="452"/>
-      <c r="L3" s="452"/>
+      <c r="K3" s="454"/>
+      <c r="L3" s="454"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="24" t="s">
@@ -37449,11 +37449,11 @@
       <c r="C15" s="362"/>
       <c r="D15" s="24"/>
       <c r="E15" s="60"/>
-      <c r="F15" s="453" t="s">
+      <c r="F15" s="455" t="s">
         <v>238</v>
       </c>
-      <c r="G15" s="453"/>
-      <c r="H15" s="453"/>
+      <c r="G15" s="455"/>
+      <c r="H15" s="455"/>
       <c r="J15" s="313" t="s">
         <v>140</v>
       </c>
@@ -38060,10 +38060,10 @@
       <c r="E72" s="295"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="450" t="s">
+      <c r="A73" s="452" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="451"/>
+      <c r="B73" s="453"/>
       <c r="C73" s="277">
         <f>SUM(C4:C72)</f>
         <v>50300</v>
